--- a/Andrew-annotations/OCX_Q1_2020.xlsx
+++ b/Andrew-annotations/OCX_Q1_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407130F4-5C81-45AE-BB0F-853120EFFE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B3757-545A-4C52-8FC6-D413DE9B38B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -652,10 +652,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -678,22 +678,22 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -713,16 +713,16 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -870,22 +870,22 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -1033,13 +1033,13 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1100,10 +1100,10 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="374.4" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1225,10 +1225,10 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1289,16 +1289,16 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>2</v>
